--- a/USHPRR/GrB_fxn_fitting.xlsx
+++ b/USHPRR/GrB_fxn_fitting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2E55FA-BC96-6C43-BF03-C665ED0B4D99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CD63DC-A986-2D44-99D4-258732C2CC0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="4040" windowWidth="27240" windowHeight="16440" xr2:uid="{C042AB17-A210-0A46-830B-E4A6C4FD6F94}"/>
+    <workbookView xWindow="17620" yWindow="4180" windowWidth="27240" windowHeight="16440" xr2:uid="{C042AB17-A210-0A46-830B-E4A6C4FD6F94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6132,9 +6132,9 @@
       <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -6159,11 +6159,11 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>(1-C4)*$E$1+(C4*E$2)</f>
+        <f t="shared" ref="D4:D17" si="0">(1-C4)*$E$1+(C4*E$2)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <f>B5/(1E+27)</f>
         <v>0.56096716486814002</v>
@@ -6175,13 +6175,13 @@
         <v>9.8837209302324799E-3</v>
       </c>
       <c r="D5">
-        <f>(1-C5)*$E$1+(C5*E$2)</f>
+        <f t="shared" si="0"/>
         <v>9.9021511627906982</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
-        <f t="shared" ref="A6:A16" si="0">B6/(1E+27)</f>
+        <f t="shared" ref="A6:A16" si="1">B6/(1E+27)</f>
         <v>1.5137630561486499</v>
       </c>
       <c r="B6" s="1">
@@ -6191,13 +6191,13 @@
         <v>8.1395348837207601E-3</v>
       </c>
       <c r="D6">
-        <f>(1-C6)*$E$1+(C6*E$2)</f>
+        <f t="shared" si="0"/>
         <v>9.9194186046511632</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2389058803162301</v>
       </c>
       <c r="B7" s="1">
@@ -6207,13 +6207,13 @@
         <v>2.5581395348837001E-2</v>
       </c>
       <c r="D7">
-        <f>(1-C7)*$E$1+(C7*E$2)</f>
+        <f t="shared" si="0"/>
         <v>9.7467441860465147</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.81528074326273</v>
       </c>
       <c r="B8" s="1">
@@ -6223,13 +6223,13 @@
         <v>4.6511627906976598E-2</v>
       </c>
       <c r="D8">
-        <f>(1-C8)*$E$1+(C8*E$2)</f>
+        <f t="shared" si="0"/>
         <v>9.5395348837209308</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3938484621155198</v>
       </c>
       <c r="B9" s="1">
@@ -6239,13 +6239,13 @@
         <v>0.13372093023255799</v>
       </c>
       <c r="D9">
-        <f>(1-C9)*$E$1+(C9*E$2)</f>
+        <f t="shared" si="0"/>
         <v>8.6761627906976759</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.85434820243522</v>
       </c>
       <c r="B10" s="1">
@@ -6255,13 +6255,13 @@
         <v>0.252325581395348</v>
       </c>
       <c r="D10">
-        <f>(1-C10)*$E$1+(C10*E$2)</f>
+        <f t="shared" si="0"/>
         <v>7.501976744186055</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3046338507703803</v>
       </c>
       <c r="B11" s="1">
@@ -6271,7 +6271,7 @@
         <v>0.36220930232558102</v>
       </c>
       <c r="D11">
-        <f>(1-C11)*$E$1+(C11*E$2)</f>
+        <f t="shared" si="0"/>
         <v>6.4141279069767476</v>
       </c>
       <c r="F11" t="s">
@@ -6287,9 +6287,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9445438282647496</v>
       </c>
       <c r="B12" s="1">
@@ -6299,7 +6299,7 @@
         <v>0.503488372093023</v>
       </c>
       <c r="D12">
-        <f>(1-C12)*$E$1+(C12*E$2)</f>
+        <f t="shared" si="0"/>
         <v>5.0154651162790724</v>
       </c>
       <c r="F12" t="s">
@@ -6315,9 +6315,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5436551445553608</v>
       </c>
       <c r="B13" s="1">
@@ -6327,7 +6327,7 @@
         <v>0.61162790697674396</v>
       </c>
       <c r="D13">
-        <f>(1-C13)*$E$1+(C13*E$2)</f>
+        <f t="shared" si="0"/>
         <v>3.944883720930235</v>
       </c>
       <c r="F13" t="s">
@@ -6343,9 +6343,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2817819839575195</v>
       </c>
       <c r="B14" s="1">
@@ -6355,7 +6355,7 @@
         <v>0.72151162790697598</v>
       </c>
       <c r="D14">
-        <f>(1-C14)*$E$1+(C14*E$2)</f>
+        <f t="shared" si="0"/>
         <v>2.8570348837209378</v>
       </c>
       <c r="F14" t="s">
@@ -6371,9 +6371,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9496220208898301</v>
       </c>
       <c r="B15" s="1">
@@ -6383,7 +6383,7 @@
         <v>0.80697674418604604</v>
       </c>
       <c r="D15">
-        <f>(1-C15)*$E$1+(C15*E$2)</f>
+        <f t="shared" si="0"/>
         <v>2.0109302325581444</v>
       </c>
       <c r="F15" t="s">
@@ -6399,9 +6399,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5270356050550999</v>
       </c>
       <c r="B16" s="1">
@@ -6411,7 +6411,7 @@
         <v>0.85930232558139497</v>
       </c>
       <c r="D16">
-        <f>(1-C16)*$E$1+(C16*E$2)</f>
+        <f t="shared" si="0"/>
         <v>1.4929069767441898</v>
       </c>
       <c r="F16" t="s">
@@ -6430,7 +6430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>10</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <f>(1-C17)*$E$1+(C17*E$2)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
@@ -6475,7 +6475,7 @@
         <v>10.071586</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="E18" t="s">
         <v>7</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>0.153224</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="E19">
         <v>0.25</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>0.18717900000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="B20" s="1">
         <v>0.01</v>
       </c>
@@ -6584,31 +6584,31 @@
         <v>0.5</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F27" si="1">$F$18*($J$11-$E20)^3</f>
+        <f t="shared" ref="F20:F26" si="2">$F$18*($J$11-$E20)^3</f>
         <v>5.0726249999999995</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G30" si="2">$G$18*($J$12-$E20)^3</f>
+        <f t="shared" ref="G20:G30" si="3">$G$18*($J$12-$E20)^3</f>
         <v>-14.25</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H34" si="3">$H$18*($J$13-$E20)^3</f>
+        <f t="shared" ref="H20:H34" si="4">$H$18*($J$13-$E20)^3</f>
         <v>12.047875000000001</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I41" si="4">$I$18*($J$14-$E20)^3</f>
+        <f t="shared" ref="I20:I39" si="5">$I$18*($J$14-$E20)^3</f>
         <v>-8.485125</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:J57" si="5">$J$18*($J$15-$E20)^3</f>
+        <f t="shared" ref="J20:J50" si="6">$J$18*($J$15-$E20)^3</f>
         <v>-36.28125</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K58" si="6">$K$18*($J$16-$E20)^3</f>
+        <f t="shared" ref="K20:K58" si="7">$K$18*($J$16-$E20)^3</f>
         <v>51.442499999999995</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L58" si="7">SUM(F20:K20)</f>
+        <f t="shared" ref="L20:L58" si="8">SUM(F20:K20)</f>
         <v>9.5466249999999917</v>
       </c>
       <c r="O20" t="s">
@@ -6630,7 +6630,7 @@
         <v>-0.19698599999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="B21">
         <v>0.56096716486814002</v>
       </c>
@@ -6641,31 +6641,31 @@
         <v>0.75</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.935546875</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-10.388250000000001</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6462031250000013</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.3798593749999997</v>
       </c>
       <c r="J21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-32.772718749999996</v>
       </c>
       <c r="K21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47.487187499999997</v>
       </c>
       <c r="L21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.5281093749999997</v>
       </c>
       <c r="O21" t="s">
@@ -6687,7 +6687,7 @@
         <v>2.9145999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="B22">
         <v>1.5137630561486499</v>
       </c>
@@ -6698,31 +6698,31 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5029999999999999</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.2960000000000003</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5870000000000006</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.375</v>
       </c>
       <c r="J22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-29.497999999999998</v>
       </c>
       <c r="K22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43.739999999999995</v>
       </c>
       <c r="L22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6610000000000014</v>
       </c>
       <c r="S22" t="s">
@@ -6738,7 +6738,7 @@
         <v>-1.2459999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="B23">
         <v>2.2389058803162301</v>
       </c>
@@ -6749,31 +6749,31 @@
         <v>1.25</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63407812499999994</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.8877500000000005</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8439218750000004</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.4657656249999995</v>
       </c>
       <c r="J23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.449031249999997</v>
       </c>
       <c r="K23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40.1953125</v>
       </c>
       <c r="L23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.8707656250000042</v>
       </c>
       <c r="N23" t="s">
@@ -6786,7 +6786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="B24">
         <v>2.81528074326273</v>
       </c>
@@ -6797,31 +6797,31 @@
         <v>1.5</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18787499999999999</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.0780000000000003</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.390625</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.6473749999999994</v>
       </c>
       <c r="J24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-23.617749999999997</v>
       </c>
       <c r="K24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36.847499999999997</v>
       </c>
       <c r="L24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.082875000000001</v>
       </c>
       <c r="N24">
@@ -6846,7 +6846,7 @@
         <v>10.118625416015623</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="B25">
         <v>3.3938484621155198</v>
       </c>
@@ -6857,56 +6857,56 @@
         <v>1.75</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3484374999999998E-2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.78125</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2007656250000003</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.9150468749999998</v>
       </c>
       <c r="J25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-20.99609375</v>
       </c>
       <c r="K25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.690937499999997</v>
       </c>
       <c r="L25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.222796874999997</v>
       </c>
       <c r="N25">
         <v>0.5</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:O55" si="8">$P$18*(($P$20/($P$20-$P$19)*N25^$P$19)-($P$19/($P$20-$P$19)*N25^$P$20))+$P$21*N25</f>
+        <f t="shared" ref="O25:O55" si="9">$P$18*(($P$20/($P$20-$P$19)*N25^$P$19)-($P$19/($P$20-$P$19)*N25^$P$20))+$P$21*N25</f>
         <v>10.680071935004481</v>
       </c>
       <c r="R25">
         <v>0.5</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25:S55" si="9">$T$18*EXP(-$T$19*($R25-$T$20))+EXP(-$T$21*($R25-T$22))</f>
+        <f t="shared" ref="S25:S55" si="10">$T$18*EXP(-$T$19*($R25-$T$20))+EXP(-$T$21*($R25-T$22))</f>
         <v>10.946000820278753</v>
       </c>
       <c r="V25">
         <v>0.5</v>
       </c>
       <c r="W25">
-        <f t="shared" ref="W25:W63" si="10">X$17+X$18*V25+X$19*V25^2+X$20*V25^3+X$21*V25^4+X$22*V25^5</f>
+        <f t="shared" ref="W25:W63" si="11">X$17+X$18*V25+X$19*V25^2+X$20*V25^3+X$21*V25^4+X$22*V25^5</f>
         <v>10.172152187500002</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="B26">
         <v>3.85434820243522</v>
       </c>
@@ -6917,56 +6917,56 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.91200000000000003</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2480000000000002</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.2639999999999998</v>
       </c>
       <c r="J26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-18.575999999999997</v>
       </c>
       <c r="K26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.72</v>
       </c>
       <c r="L26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.216000000000001</v>
       </c>
       <c r="N26">
         <v>0.75</v>
       </c>
       <c r="O26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.613652016920973</v>
       </c>
       <c r="R26">
         <v>0.75</v>
       </c>
       <c r="S26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.504118610889183</v>
       </c>
       <c r="V26">
         <v>0.75</v>
       </c>
       <c r="W26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.217615013671875</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="B27">
         <v>4.3046338507703803</v>
       </c>
@@ -6977,52 +6977,52 @@
         <v>2.25</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.38475000000000004</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5059843750000002</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.689453125</v>
       </c>
       <c r="J27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-16.349406249999998</v>
       </c>
       <c r="K27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.929062500000001</v>
       </c>
       <c r="L27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.011437500000003</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.486000000000001</v>
       </c>
       <c r="R27">
         <v>1</v>
       </c>
       <c r="S27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.080075068861392</v>
       </c>
       <c r="V27">
         <v>1</v>
       </c>
       <c r="W27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.242903</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="B28">
         <v>4.9445438282647496</v>
       </c>
@@ -7033,52 +7033,52 @@
         <v>2.5</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.114</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94837500000000008</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.1866249999999998</v>
       </c>
       <c r="J28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-14.308249999999999</v>
       </c>
       <c r="K28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.3125</v>
       </c>
       <c r="L28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.652000000000001</v>
       </c>
       <c r="N28">
         <v>1.25</v>
       </c>
       <c r="O28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.318045549355833</v>
       </c>
       <c r="R28">
         <v>1.25</v>
       </c>
       <c r="S28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.6731500439716687</v>
       </c>
       <c r="V28">
         <v>1.25</v>
       </c>
       <c r="W28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.238199642578126</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="B29">
         <v>5.5436551445553608</v>
       </c>
@@ -7089,52 +7089,52 @@
         <v>2.75</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4250000000000001E-2</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.548828125</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.750734375</v>
       </c>
       <c r="J29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-12.444468749999999</v>
       </c>
       <c r="K29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.864687499999999</v>
       </c>
       <c r="L29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.2040624999999991</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.119619353360754</v>
       </c>
       <c r="R29">
         <v>1.5</v>
       </c>
       <c r="S29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.2826524589092152</v>
       </c>
       <c r="V29">
         <v>1.5</v>
       </c>
       <c r="W29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.1958368125</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="B30">
         <v>6.2817819839575195</v>
       </c>
@@ -7145,52 +7145,52 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28100000000000003</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.377</v>
       </c>
       <c r="J30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-10.75</v>
       </c>
       <c r="K30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.58</v>
       </c>
       <c r="L30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.7339999999999982</v>
       </c>
       <c r="N30">
         <v>1.75</v>
       </c>
       <c r="O30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.8962613259929721</v>
       </c>
       <c r="R30">
         <v>1.75</v>
       </c>
       <c r="S30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.9079191355718255</v>
       </c>
       <c r="V30">
         <v>1.75</v>
       </c>
       <c r="W30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.110148740234376</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="B31">
         <v>6.9496220208898301</v>
       </c>
@@ -7201,48 +7201,48 @@
         <v>3.25</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11854687500000001</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.060640625</v>
       </c>
       <c r="J31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.2167812499999986</v>
       </c>
       <c r="K31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.4528125</v>
       </c>
       <c r="L31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.293937500000002</v>
       </c>
       <c r="N31">
         <v>2</v>
       </c>
       <c r="O31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6514712292995384</v>
       </c>
       <c r="R31">
         <v>2</v>
       </c>
       <c r="S31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5483136687457559</v>
       </c>
       <c r="V31">
         <v>2</v>
       </c>
       <c r="W31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.9773259999999979</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="B32">
         <v>7.5270356050550999</v>
       </c>
@@ -7253,48 +7253,48 @@
         <v>3.5</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5125000000000003E-2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.796875</v>
       </c>
       <c r="J32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7.8367499999999994</v>
       </c>
       <c r="K32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.477499999999999</v>
       </c>
       <c r="L32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.8789999999999996</v>
       </c>
       <c r="N32">
         <v>2.25</v>
       </c>
       <c r="O32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.3876416005421959</v>
       </c>
       <c r="R32">
         <v>2.25</v>
       </c>
       <c r="S32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.2032253452568238</v>
       </c>
       <c r="V32">
         <v>2.25</v>
       </c>
       <c r="W32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.7952694941406229</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23">
       <c r="B33">
         <v>8</v>
       </c>
@@ -7305,48 +7305,48 @@
         <v>3.75</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3906250000000004E-3</v>
       </c>
       <c r="I33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.58092187499999992</v>
       </c>
       <c r="J33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.6018437499999996</v>
       </c>
       <c r="K33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.6484375</v>
       </c>
       <c r="L33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.4700625000000009</v>
       </c>
       <c r="N33">
         <v>2.5</v>
       </c>
       <c r="O33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.1065055463130982</v>
       </c>
       <c r="R33">
         <v>2.5</v>
       </c>
       <c r="S33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8720681067569256</v>
       </c>
       <c r="V33">
         <v>2.5</v>
       </c>
       <c r="W33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.5634444374999994</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23">
       <c r="B34">
         <v>9</v>
       </c>
@@ -7357,48 +7357,48 @@
         <v>4</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.40799999999999997</v>
       </c>
       <c r="J34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.5039999999999996</v>
       </c>
       <c r="K34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.959999999999999</v>
       </c>
       <c r="L34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.0479999999999992</v>
       </c>
       <c r="N34">
         <v>2.75</v>
       </c>
       <c r="O34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.8093752745392084</v>
       </c>
       <c r="R34">
         <v>2.75</v>
       </c>
       <c r="S34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.5542795543843679</v>
       </c>
       <c r="V34">
         <v>2.75</v>
       </c>
       <c r="W34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.2827343417968766</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23">
       <c r="B35">
         <v>10</v>
       </c>
@@ -7409,901 +7409,901 @@
         <v>4.25</v>
       </c>
       <c r="I35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.27332812499999998</v>
       </c>
       <c r="J35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.53515625</v>
       </c>
       <c r="K35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.4065625</v>
       </c>
       <c r="L35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.5980781249999998</v>
       </c>
       <c r="N35">
         <v>3</v>
       </c>
       <c r="O35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4972795103732004</v>
       </c>
       <c r="R35">
         <v>3</v>
       </c>
       <c r="S35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.2493199936074779</v>
       </c>
       <c r="V35">
         <v>3</v>
       </c>
       <c r="W35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.9552949999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23">
       <c r="E36">
         <v>4.5</v>
       </c>
       <c r="I36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.172125</v>
       </c>
       <c r="J36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.6872499999999997</v>
       </c>
       <c r="K36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9824999999999999</v>
       </c>
       <c r="L36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.1231249999999999</v>
       </c>
       <c r="N36">
         <v>3.25</v>
       </c>
       <c r="O36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.171047663962808</v>
       </c>
       <c r="R36">
         <v>3.25</v>
       </c>
       <c r="S36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.9566715176292142</v>
       </c>
       <c r="V36">
         <v>3.25</v>
       </c>
       <c r="W36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.5844084707031243</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23">
       <c r="E37">
         <v>4.75</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.9609375E-2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.9522187499999997</v>
       </c>
       <c r="K37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.6821874999999995</v>
       </c>
       <c r="L37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.6303593749999994</v>
       </c>
       <c r="N37">
         <v>3.5</v>
       </c>
       <c r="O37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.8313639928299477</v>
       </c>
       <c r="R37">
         <v>3.5</v>
       </c>
       <c r="S37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.6758371277960027</v>
       </c>
       <c r="V37">
         <v>3.5</v>
       </c>
       <c r="W37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1743370624999994</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23">
       <c r="E38">
         <v>5</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.0999999999999997E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.3219999999999996</v>
       </c>
       <c r="K38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
       <c r="L38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.1270000000000007</v>
       </c>
       <c r="N38">
         <v>3.75</v>
       </c>
       <c r="O38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.4788039027541391</v>
       </c>
       <c r="R38">
         <v>3.75</v>
       </c>
       <c r="S38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4063398895168708</v>
       </c>
       <c r="V38">
         <v>3.75</v>
       </c>
       <c r="W38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.7301773183593756</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23">
       <c r="E39">
         <v>5.25</v>
       </c>
       <c r="I39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.1515625E-2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.7885312499999999</v>
       </c>
       <c r="K39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4303124999999994</v>
       </c>
       <c r="L39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.620265625</v>
       </c>
       <c r="N39">
         <v>4</v>
       </c>
       <c r="O39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.113859122069071</v>
       </c>
       <c r="R39">
         <v>4</v>
       </c>
       <c r="S39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1477221222592613</v>
       </c>
       <c r="V39">
         <v>4</v>
       </c>
       <c r="W39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2577139999999991</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:23">
       <c r="E40">
         <v>5.5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.34375</v>
       </c>
       <c r="K40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.4674999999999994</v>
       </c>
       <c r="L40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1237499999999994</v>
       </c>
       <c r="N40">
         <v>4.25</v>
       </c>
       <c r="O40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.7369556743858761</v>
       </c>
       <c r="R40">
         <v>4.25</v>
       </c>
       <c r="S40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8995446222458039</v>
       </c>
       <c r="V40">
         <v>4.25</v>
       </c>
       <c r="W40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.7632740722656255</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:23">
       <c r="E41">
         <v>5.75</v>
       </c>
       <c r="J41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.97959374999999993</v>
       </c>
       <c r="K41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6059374999999996</v>
       </c>
       <c r="L41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6263437499999998</v>
       </c>
       <c r="N41">
         <v>4.5</v>
       </c>
       <c r="O41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.3484670351575385</v>
       </c>
       <c r="R41">
         <v>4.5</v>
       </c>
       <c r="S41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6613859165318257</v>
       </c>
       <c r="V41">
         <v>4.5</v>
       </c>
       <c r="W41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2535806875000004</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23">
       <c r="E42">
         <v>6</v>
       </c>
       <c r="J42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.68799999999999994</v>
       </c>
       <c r="K42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.84</v>
       </c>
       <c r="L42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1520000000000001</v>
       </c>
       <c r="N42">
         <v>4.75</v>
       </c>
       <c r="O42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9487239749052918</v>
       </c>
       <c r="R42">
         <v>4.75</v>
       </c>
       <c r="S42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4328415471967215</v>
       </c>
       <c r="V42">
         <v>4.75</v>
       </c>
       <c r="W42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.7356071699218747</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23">
       <c r="E43">
         <v>6.25</v>
       </c>
       <c r="J43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.46090624999999996</v>
       </c>
       <c r="K43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1640625</v>
       </c>
       <c r="L43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7031562500000001</v>
       </c>
       <c r="N43">
         <v>5</v>
       </c>
       <c r="O43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5380220659062118</v>
       </c>
       <c r="R43">
         <v>5</v>
       </c>
       <c r="S43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2135233844334428</v>
       </c>
       <c r="V43">
         <v>5</v>
       </c>
       <c r="W43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.2164310000000009</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23">
       <c r="E44">
         <v>6.5</v>
       </c>
       <c r="J44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.29024999999999995</v>
       </c>
       <c r="K44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5724999999999998</v>
       </c>
       <c r="L44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2822499999999999</v>
       </c>
       <c r="N44">
         <v>5.25</v>
       </c>
       <c r="O44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1166275048462442</v>
       </c>
       <c r="R44">
         <v>5.25</v>
       </c>
       <c r="S44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0030589673694141</v>
       </c>
       <c r="V44">
         <v>5.25</v>
       </c>
       <c r="W44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.703087798828129</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23">
       <c r="E45">
         <v>6.75</v>
       </c>
       <c r="J45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.16796875</v>
       </c>
       <c r="K45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0596874999999999</v>
       </c>
       <c r="L45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8917187499999999</v>
       </c>
       <c r="N45">
         <v>5.5</v>
       </c>
       <c r="O45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6847816979811574</v>
       </c>
       <c r="R45">
         <v>5.5</v>
       </c>
       <c r="S45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.8010908714993317</v>
       </c>
       <c r="V45">
         <v>5.5</v>
       </c>
       <c r="W45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.2024253125000035</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23">
       <c r="E46">
         <v>7</v>
       </c>
       <c r="J46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.5999999999999993E-2</v>
       </c>
       <c r="K46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6199999999999999</v>
       </c>
       <c r="L46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5339999999999998</v>
       </c>
       <c r="N46">
         <v>5.75</v>
       </c>
       <c r="O46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2427049210496293</v>
       </c>
       <c r="R46">
         <v>5.75</v>
       </c>
       <c r="S46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.6072761016554749</v>
       </c>
       <c r="V46">
         <v>5.75</v>
       </c>
       <c r="W46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.7209573964843745</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23">
       <c r="E47">
         <v>7.25</v>
       </c>
       <c r="J47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.6281249999999994E-2</v>
       </c>
       <c r="K47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2478125</v>
       </c>
       <c r="L47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2115312499999999</v>
       </c>
       <c r="N47">
         <v>6</v>
       </c>
       <c r="O47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7905992765310152</v>
       </c>
       <c r="R47">
         <v>6</v>
       </c>
       <c r="S47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.4212855094845391</v>
       </c>
       <c r="V47">
         <v>6</v>
       </c>
       <c r="W47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.264718000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23">
       <c r="E48">
         <v>7.5</v>
       </c>
       <c r="J48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.0749999999999999E-2</v>
       </c>
       <c r="K48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9375</v>
       </c>
       <c r="L48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92674999999999996</v>
       </c>
       <c r="N48">
         <v>6.25</v>
       </c>
       <c r="O48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.328651109715306</v>
       </c>
       <c r="R48">
         <v>6.25</v>
       </c>
       <c r="S48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.2428032344416104</v>
       </c>
       <c r="V48">
         <v>6.25</v>
       </c>
       <c r="W48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8391151503906258</v>
       </c>
     </row>
-    <row r="49" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:23">
       <c r="E49">
         <v>7.75</v>
       </c>
       <c r="J49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.3437499999999999E-3</v>
       </c>
       <c r="K49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.68343749999999992</v>
       </c>
       <c r="L49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.68209374999999994</v>
       </c>
       <c r="N49">
         <v>6.5</v>
       </c>
       <c r="O49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8570330025759128</v>
       </c>
       <c r="R49">
         <v>6.5</v>
       </c>
       <c r="S49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.0715261673518759</v>
       </c>
       <c r="V49">
         <v>6.5</v>
       </c>
       <c r="W49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4487849374999993</v>
       </c>
     </row>
-    <row r="50" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:23">
       <c r="E50">
         <v>8</v>
       </c>
       <c r="J50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="6"/>
-        <v>0.48</v>
-      </c>
-      <c r="L50">
         <f t="shared" si="7"/>
         <v>0.48</v>
       </c>
+      <c r="L50">
+        <f t="shared" si="8"/>
+        <v>0.48</v>
+      </c>
       <c r="N50">
         <v>6.75</v>
       </c>
       <c r="O50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3759054344017621</v>
       </c>
       <c r="R50">
         <v>6.75</v>
       </c>
       <c r="S50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9071634356289588</v>
       </c>
       <c r="V50">
         <v>6.75</v>
       </c>
       <c r="W50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0974454980468771</v>
       </c>
     </row>
-    <row r="51" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:23">
       <c r="E51">
         <v>8.25</v>
       </c>
       <c r="K51">
-        <f t="shared" si="6"/>
-        <v>0.32156249999999997</v>
-      </c>
-      <c r="L51">
         <f t="shared" si="7"/>
         <v>0.32156249999999997</v>
       </c>
+      <c r="L51">
+        <f t="shared" si="8"/>
+        <v>0.32156249999999997</v>
+      </c>
       <c r="N51">
         <v>7</v>
       </c>
       <c r="O51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8854181765715836</v>
       </c>
       <c r="R51">
         <v>7</v>
       </c>
       <c r="S51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.7494359092755736</v>
       </c>
       <c r="V51">
         <v>7</v>
       </c>
       <c r="W51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7877510000000001</v>
       </c>
     </row>
-    <row r="52" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:23">
       <c r="E52">
         <v>8.5</v>
       </c>
       <c r="K52">
-        <f t="shared" si="6"/>
-        <v>0.20249999999999999</v>
-      </c>
-      <c r="L52">
         <f t="shared" si="7"/>
         <v>0.20249999999999999</v>
       </c>
+      <c r="L52">
+        <f t="shared" si="8"/>
+        <v>0.20249999999999999</v>
+      </c>
       <c r="N52">
         <v>7.25</v>
       </c>
       <c r="O52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3857114731305016</v>
       </c>
       <c r="R52">
         <v>7.25</v>
       </c>
       <c r="S52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.598075726827485</v>
       </c>
       <c r="V52">
         <v>7.25</v>
       </c>
       <c r="W52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5211456269531283</v>
       </c>
     </row>
-    <row r="53" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:23">
       <c r="E53">
         <v>8.75</v>
       </c>
       <c r="K53">
-        <f t="shared" si="6"/>
-        <v>0.1171875</v>
-      </c>
-      <c r="L53">
         <f t="shared" si="7"/>
         <v>0.1171875</v>
       </c>
+      <c r="L53">
+        <f t="shared" si="8"/>
+        <v>0.1171875</v>
+      </c>
       <c r="N53">
         <v>7.5</v>
       </c>
       <c r="O53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.87691704721762598</v>
       </c>
       <c r="R53">
         <v>7.5</v>
       </c>
       <c r="S53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.4528258404356245</v>
       </c>
       <c r="V53">
         <v>7.5</v>
       </c>
       <c r="W53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2977175624999866</v>
       </c>
     </row>
-    <row r="54" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:23">
       <c r="E54">
         <v>9</v>
       </c>
       <c r="K54">
-        <f t="shared" si="6"/>
-        <v>0.06</v>
-      </c>
-      <c r="L54">
         <f t="shared" si="7"/>
         <v>0.06</v>
       </c>
+      <c r="L54">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
       <c r="N54">
         <v>7.75</v>
       </c>
       <c r="O54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.35915896471179476</v>
       </c>
       <c r="R54">
         <v>7.75</v>
       </c>
       <c r="S54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.3134395793137381</v>
       </c>
       <c r="V54">
         <v>7.75</v>
       </c>
       <c r="W54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1160529746093744</v>
       </c>
     </row>
-    <row r="55" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:23">
       <c r="E55">
         <v>9.25</v>
       </c>
       <c r="K55">
-        <f t="shared" si="6"/>
-        <v>2.5312499999999998E-2</v>
-      </c>
-      <c r="L55">
         <f t="shared" si="7"/>
         <v>2.5312499999999998E-2</v>
       </c>
+      <c r="L55">
+        <f t="shared" si="8"/>
+        <v>2.5312499999999998E-2</v>
+      </c>
       <c r="N55">
         <v>8</v>
       </c>
       <c r="O55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.16744562010197761</v>
       </c>
       <c r="R55">
         <v>8</v>
       </c>
       <c r="S55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1796802308101086</v>
       </c>
       <c r="V55">
         <v>8</v>
       </c>
       <c r="W55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.97309000000000623</v>
       </c>
     </row>
-    <row r="56" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:23">
       <c r="E56">
         <v>9.5</v>
       </c>
       <c r="K56">
-        <f t="shared" si="6"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="L56">
         <f t="shared" si="7"/>
         <v>7.4999999999999997E-3</v>
       </c>
+      <c r="L56">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
       <c r="V56">
         <v>8.25</v>
       </c>
       <c r="W56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.86397272851564111</v>
       </c>
     </row>
-    <row r="57" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:23">
       <c r="E57">
         <v>9.75</v>
       </c>
       <c r="K57">
-        <f t="shared" si="6"/>
-        <v>9.3749999999999997E-4</v>
-      </c>
-      <c r="L57">
         <f t="shared" si="7"/>
         <v>9.3749999999999997E-4</v>
       </c>
+      <c r="L57">
+        <f t="shared" si="8"/>
+        <v>9.3749999999999997E-4</v>
+      </c>
       <c r="V57">
         <v>8.5</v>
       </c>
       <c r="W57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.78190518750000848</v>
       </c>
     </row>
-    <row r="58" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:23">
       <c r="E58">
         <v>10</v>
       </c>
       <c r="K58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L58">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="L58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="V58">
         <v>8.75</v>
       </c>
       <c r="W58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.71800532617186974</v>
       </c>
     </row>
-    <row r="59" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:23">
       <c r="V59">
         <v>9</v>
       </c>
       <c r="W59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.66115899999999783</v>
       </c>
     </row>
-    <row r="60" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:23">
       <c r="V60">
         <v>9.25</v>
       </c>
       <c r="W60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.59787395507814267</v>
       </c>
     </row>
-    <row r="61" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:23">
       <c r="V61">
         <v>9.5</v>
       </c>
       <c r="W61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.51213381249999657</v>
       </c>
     </row>
-    <row r="62" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:23">
       <c r="V62">
         <v>9.75</v>
       </c>
       <c r="W62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.38525205273434437</v>
       </c>
     </row>
-    <row r="63" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:23">
       <c r="V63">
         <v>10</v>
       </c>
       <c r="W63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19572600000000762</v>
       </c>
     </row>
